--- a/database/industries/felezat/fasmin/cost/yearly.xlsx
+++ b/database/industries/felezat/fasmin/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fasmin\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fasmin\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4BFFE7-0044-40C3-A8B3-9A72338F4990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91CB20B-6C7B-4889-84F9-E72571D178CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -635,12 +635,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -650,7 +650,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -662,7 +662,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -674,7 +674,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -684,7 +684,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -696,7 +696,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -718,7 +718,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -750,7 +750,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -772,7 +772,7 @@
         <v>14872338</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -794,7 +794,7 @@
         <v>675294</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -816,7 +816,7 @@
         <v>5717640</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
@@ -838,7 +838,7 @@
         <v>21265272</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -860,7 +860,7 @@
         <v>-207848</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
@@ -882,7 +882,7 @@
         <v>21057424</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -904,7 +904,7 @@
         <v>2804766</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -926,7 +926,7 @@
         <v>-70696</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
@@ -948,7 +948,7 @@
         <v>23791494</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -970,7 +970,7 @@
         <v>8684564</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -992,7 +992,7 @@
         <v>-18209196</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>14266862</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>-71913</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>14194949</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1068,7 +1068,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1078,7 +1078,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1088,7 +1088,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1120,7 +1120,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>23379</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>95713</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>12</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>119092</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1200,7 +1200,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1210,7 +1210,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1220,7 +1220,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>28</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1252,7 +1252,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>24</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>357359</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>27</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>199342</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>12</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>556701</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1332,7 +1332,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1342,7 +1342,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1352,7 +1352,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>29</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1384,7 +1384,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>24</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>363788</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>27</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>197377</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>561165</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1464,7 +1464,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1474,7 +1474,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1484,7 +1484,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>30</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1516,7 +1516,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>24</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>16950</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>27</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>97678</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>12</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>114628</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1596,7 +1596,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1606,7 +1606,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1616,7 +1616,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>31</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1648,7 +1648,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>24</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>9586</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>27</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>1332348</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>12</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>1341934</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1728,7 +1728,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1738,7 +1738,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1748,7 +1748,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>33</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1780,7 +1780,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>24</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>1371768</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>27</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>14925913</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>12</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>16297681</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1860,7 +1860,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1870,7 +1870,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1880,7 +1880,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>34</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1912,7 +1912,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>24</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>1310284</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>27</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>13562054</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>12</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>14872338</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1992,7 +1992,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2002,7 +2002,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2012,7 +2012,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>35</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2044,7 +2044,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>71070</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>27</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>2696207</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>12</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>2767277</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2124,7 +2124,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2134,7 +2134,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2144,7 +2144,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>36</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2176,7 +2176,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>24</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>410026</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>27</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>13920241</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2234,7 +2234,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2244,7 +2244,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2254,7 +2254,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
         <v>38</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2286,7 +2286,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>24</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>3838627</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>27</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>74875907</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2344,7 +2344,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2354,7 +2354,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2364,7 +2364,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>39</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2396,7 +2396,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>24</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>3601779</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>27</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>68711420</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2454,7 +2454,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2464,7 +2464,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2474,7 +2474,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
         <v>40</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2506,7 +2506,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>24</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>4192920</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>27</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>27603012</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2564,7 +2564,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2574,7 +2574,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -2584,7 +2584,7 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
         <v>41</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2616,7 +2616,7 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>42</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>39231</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>43</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>44</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>45</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>46</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>2235986</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>47</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>1031068</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>48</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>122042</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>49</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>1654313</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>50</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>51</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>635000</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="14" t="s">
         <v>12</v>
       </c>
